--- a/excel/excel2.xlsx
+++ b/excel/excel2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\scripeFile\GitHub\python-dataExcel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A287615F-7574-498B-A984-FEA5C9AB30B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA12B10-E169-4D94-B631-5AB6BA830C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="1395" windowWidth="21600" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1395" windowWidth="21600" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,14 +95,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -386,19 +387,19 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
